--- a/output/ValueSet-t-cabs-valueset-Beatmungsform.xlsx
+++ b/output/ValueSet-t-cabs-valueset-Beatmungsform.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T09:40:45+02:00</t>
+    <t>2025-10-16T18:59:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-t-cabs-valueset-Beatmungsform.xlsx
+++ b/output/ValueSet-t-cabs-valueset-Beatmungsform.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>T-CABS ValueSet Beatmungsform</t>
+    <t>T-CABS ValueSet Ventilation Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T18:59:10+02:00</t>
+    <t>2025-11-19T11:55:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,46 +69,49 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>BIH-CEI (http://example.org/example-publisher)</t>
+    <t>BIH-CEI (https://www.bihealth.org/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>This ValueSet contains codes to represent the different types of ventilation</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>428311008</t>
+  </si>
+  <si>
+    <t>Non-invasive ventilation (regime/therapy)</t>
+  </si>
+  <si>
+    <t>1258985005</t>
+  </si>
+  <si>
+    <t>Invasive mechanical ventilation (regime/therapy)</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Dieses ValueSet enthält Codes um die verschiedenen Beatmungsformen abzubilden</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>428311008</t>
-  </si>
-  <si>
-    <t>Non-invasive ventilation (regime/therapy)</t>
-  </si>
-  <si>
-    <t>1258985005</t>
-  </si>
-  <si>
-    <t>Invasive mechanical ventilation (regime/therapy)</t>
   </si>
   <si>
     <t>System URI</t>
@@ -415,18 +418,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-t-cabs-valueset-Beatmungsform.xlsx
+++ b/output/ValueSet-t-cabs-valueset-Beatmungsform.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T11:55:29+01:00</t>
+    <t>2025-11-20T17:13:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
